--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cfp-Ncr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cfp-Ncr1.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8456923333333334</v>
+        <v>1.519725333333333</v>
       </c>
       <c r="H2">
-        <v>2.537077</v>
+        <v>4.559176</v>
       </c>
       <c r="I2">
-        <v>0.007498346202305766</v>
+        <v>0.008503128066097211</v>
       </c>
       <c r="J2">
-        <v>0.007498346202305766</v>
+        <v>0.008503128066097211</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08717166666666666</v>
+        <v>0.264095</v>
       </c>
       <c r="N2">
-        <v>0.261515</v>
+        <v>0.792285</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.07372041018388889</v>
+        <v>0.4013518619066667</v>
       </c>
       <c r="R2">
-        <v>0.663483691655</v>
+        <v>3.61216675716</v>
       </c>
       <c r="S2">
-        <v>0.007498346202305766</v>
+        <v>0.008503128066097211</v>
       </c>
       <c r="T2">
-        <v>0.007498346202305766</v>
+        <v>0.008503128066097211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -611,10 +611,10 @@
         <v>3.925057</v>
       </c>
       <c r="I3">
-        <v>0.01160052936894846</v>
+        <v>0.007320459297410611</v>
       </c>
       <c r="J3">
-        <v>0.01160052936894847</v>
+        <v>0.007320459297410611</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,10 +623,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08717166666666666</v>
+        <v>0.264095</v>
       </c>
       <c r="N3">
-        <v>0.261515</v>
+        <v>0.792285</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1140512534838889</v>
+        <v>0.3455293094716667</v>
       </c>
       <c r="R3">
-        <v>1.026461281355</v>
+        <v>3.109763785245</v>
       </c>
       <c r="S3">
-        <v>0.01160052936894846</v>
+        <v>0.007320459297410611</v>
       </c>
       <c r="T3">
-        <v>0.01160052936894847</v>
+        <v>0.007320459297410611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.20574666666667</v>
+        <v>75.66766366666667</v>
       </c>
       <c r="H4">
-        <v>135.61724</v>
+        <v>227.002991</v>
       </c>
       <c r="I4">
-        <v>0.4008175615171277</v>
+        <v>0.4233737640003616</v>
       </c>
       <c r="J4">
-        <v>0.4008175615171277</v>
+        <v>0.4233737640003616</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08717166666666666</v>
+        <v>0.264095</v>
       </c>
       <c r="N4">
-        <v>0.261515</v>
+        <v>0.792285</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>3.940660279844444</v>
+        <v>19.98345163604834</v>
       </c>
       <c r="R4">
-        <v>35.4659425186</v>
+        <v>179.851064724435</v>
       </c>
       <c r="S4">
-        <v>0.4008175615171277</v>
+        <v>0.4233737640003616</v>
       </c>
       <c r="T4">
-        <v>0.4008175615171277</v>
+        <v>0.4233737640003616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.341461</v>
+        <v>0.7265803333333333</v>
       </c>
       <c r="H5">
-        <v>4.024383</v>
+        <v>2.179741</v>
       </c>
       <c r="I5">
-        <v>0.01189408795423784</v>
+        <v>0.00406534357829634</v>
       </c>
       <c r="J5">
-        <v>0.01189408795423784</v>
+        <v>0.004065343578296341</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,10 +747,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.08717166666666666</v>
+        <v>0.264095</v>
       </c>
       <c r="N5">
-        <v>0.261515</v>
+        <v>0.792285</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.1169373911383333</v>
+        <v>0.1918862331316667</v>
       </c>
       <c r="R5">
-        <v>1.052436520245</v>
+        <v>1.726976098185</v>
       </c>
       <c r="S5">
-        <v>0.01189408795423784</v>
+        <v>0.00406534357829634</v>
       </c>
       <c r="T5">
-        <v>0.01189408795423784</v>
+        <v>0.004065343578296341</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.80709433333333</v>
+        <v>44.42260233333334</v>
       </c>
       <c r="H6">
-        <v>128.421283</v>
+        <v>133.267807</v>
       </c>
       <c r="I6">
-        <v>0.3795498676935244</v>
+        <v>0.2485522011014548</v>
       </c>
       <c r="J6">
-        <v>0.3795498676935245</v>
+        <v>0.2485522011014548</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08717166666666666</v>
+        <v>0.264095</v>
       </c>
       <c r="N6">
-        <v>0.261515</v>
+        <v>0.792285</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>3.731565758193888</v>
+        <v>11.73178716322167</v>
       </c>
       <c r="R6">
-        <v>33.584091823745</v>
+        <v>105.586084468995</v>
       </c>
       <c r="S6">
-        <v>0.3795498676935244</v>
+        <v>0.2485522011014548</v>
       </c>
       <c r="T6">
-        <v>0.3795498676935245</v>
+        <v>0.2485522011014548</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.27550066666667</v>
+        <v>55.08051933333333</v>
       </c>
       <c r="H7">
-        <v>63.826502</v>
+        <v>165.241558</v>
       </c>
       <c r="I7">
-        <v>0.1886396072638558</v>
+        <v>0.3081851039563794</v>
       </c>
       <c r="J7">
-        <v>0.1886396072638558</v>
+        <v>0.3081851039563794</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.08717166666666666</v>
+        <v>0.264095</v>
       </c>
       <c r="N7">
-        <v>0.261515</v>
+        <v>0.792285</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.854620852281111</v>
+        <v>14.54648975333667</v>
       </c>
       <c r="R7">
-        <v>16.69158767053</v>
+        <v>130.91840778003</v>
       </c>
       <c r="S7">
-        <v>0.1886396072638558</v>
+        <v>0.3081851039563794</v>
       </c>
       <c r="T7">
-        <v>0.1886396072638558</v>
+        <v>0.3081851039563794</v>
       </c>
     </row>
   </sheetData>
